--- a/Solution.xlsx
+++ b/Solution.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="50">
   <si>
     <t>Employee</t>
   </si>
@@ -35,31 +35,31 @@
     <t>Duration_hrs</t>
   </si>
   <si>
-    <t>Mary</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Carrie</t>
-  </si>
-  <si>
-    <t>Denis</t>
-  </si>
-  <si>
-    <t>Jaden</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>Ruth</t>
-  </si>
-  <si>
-    <t>Cheyenne</t>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Dean</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Demitry</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
+    <t>Diane</t>
+  </si>
+  <si>
+    <t>Chantelle</t>
   </si>
   <si>
     <t>15.07.2023</t>
@@ -107,49 +107,46 @@
     <t>13:00</t>
   </si>
   <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>12:30</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
     <t>15:30</t>
   </si>
   <si>
-    <t>12:30</t>
-  </si>
-  <si>
-    <t>16:00</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>08:30</t>
-  </si>
-  <si>
     <t>20:00</t>
   </si>
   <si>
-    <t>17:00</t>
-  </si>
-  <si>
-    <t>14:30</t>
+    <t>17:30</t>
+  </si>
+  <si>
+    <t>18:30</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>07:30</t>
   </si>
   <si>
     <t>07:00</t>
   </si>
   <si>
-    <t>06:00</t>
-  </si>
-  <si>
     <t>04:30</t>
   </si>
   <si>
-    <t>07:30</t>
-  </si>
-  <si>
     <t>04:00</t>
   </si>
   <si>
     <t>05:00</t>
-  </si>
-  <si>
-    <t>06:30</t>
   </si>
   <si>
     <t>min_hours_per_week</t>
@@ -602,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -622,10 +619,10 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -642,10 +639,10 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -662,10 +659,10 @@
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -682,10 +679,10 @@
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -702,10 +699,10 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -730,13 +727,13 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -750,13 +747,13 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -770,13 +767,13 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -793,10 +790,10 @@
         <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -810,13 +807,13 @@
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -830,13 +827,13 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -850,13 +847,13 @@
         <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -870,13 +867,13 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -890,13 +887,13 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -910,13 +907,13 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -933,7 +930,7 @@
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
         <v>28</v>
@@ -953,10 +950,10 @@
         <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -973,10 +970,10 @@
         <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -993,10 +990,10 @@
         <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1009,6 +1006,15 @@
       <c r="C24" t="s">
         <v>25</v>
       </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
@@ -1020,15 +1026,6 @@
       <c r="C25" t="s">
         <v>26</v>
       </c>
-      <c r="D25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
@@ -1047,7 +1044,7 @@
         <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1106,10 +1103,10 @@
         <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1126,10 +1123,10 @@
         <v>28</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1142,6 +1139,15 @@
       <c r="C32" t="s">
         <v>21</v>
       </c>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
@@ -1212,10 +1218,10 @@
         <v>28</v>
       </c>
       <c r="E38" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1229,13 +1235,13 @@
         <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1249,13 +1255,13 @@
         <v>23</v>
       </c>
       <c r="D40" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E40" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1272,10 +1278,10 @@
         <v>28</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1310,15 +1316,6 @@
       <c r="C44" t="s">
         <v>21</v>
       </c>
-      <c r="D44" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
@@ -1363,6 +1360,15 @@
       <c r="C48" t="s">
         <v>25</v>
       </c>
+      <c r="D48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
@@ -1389,10 +1395,10 @@
         <v>28</v>
       </c>
       <c r="E50" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1420,10 +1426,10 @@
         <v>28</v>
       </c>
       <c r="E52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F52" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1440,10 +1446,10 @@
         <v>28</v>
       </c>
       <c r="E53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1460,10 +1466,10 @@
         <v>28</v>
       </c>
       <c r="E54" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1497,22 +1503,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1526,7 +1532,7 @@
         <v>40</v>
       </c>
       <c r="D2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1566,7 +1572,7 @@
         <v>40</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1606,7 +1612,7 @@
         <v>37.5</v>
       </c>
       <c r="D6">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1620,13 +1626,13 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>20</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1646,7 +1652,7 @@
         <v>20</v>
       </c>
       <c r="D8">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
